--- a/Test Case and Bug Report/Herman - Test Scenario.xlsx
+++ b/Test Case and Bug Report/Herman - Test Scenario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Challenge 1 08 Oct 23 Gold\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Challenge 1 08 Oct 23 Gold\Github\Test Case and Bug Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A746BB3-8BD3-4A0D-B125-D114F11B2578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61EB01-FC8D-4B3D-8338-12DBD2EC0622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -292,9 +292,6 @@
 - Registered Phone number
 - Address with valid format
 </t>
-  </si>
-  <si>
-    <t>TS.REG.APP.001.003</t>
   </si>
   <si>
     <t xml:space="preserve">Daftar button cannot be click and can not redirect to Secondhand app with account registered </t>
@@ -712,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD407930-29AD-4F4C-AA29-32A463163A5F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -856,28 +853,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="116.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -885,28 +882,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -919,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C6AC74-E050-43B3-AC92-C5C250423505}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1016,39 +1013,25 @@
         <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1059,9 +1042,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
